--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T12:29:24+00:00</t>
+    <t>2025-07-29T13:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T13:49:48+00:00</t>
+    <t>2025-07-30T12:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2711,7 +2711,7 @@
     <t>TDDUI Bundle</t>
   </si>
   <si>
-    <t>Profil générique créé dans le contexte du transfert de données DUI pour véhiculer un lot de documents au format CDA.</t>
+    <t>Profil générique créé dans le contexte du transfert des données d'un logiciel DUI.</t>
   </si>
   <si>
     <t>Bundle</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T12:27:25+00:00</t>
+    <t>2025-07-30T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2711,7 +2711,7 @@
     <t>TDDUI Bundle</t>
   </si>
   <si>
-    <t>Profil générique créé dans le contexte du transfert des données d'un logiciel DUI.</t>
+    <t>Profil générique créé pour transmettre des données d'un logiciel DUI.</t>
   </si>
   <si>
     <t>Bundle</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T14:31:57+00:00</t>
+    <t>2025-07-30T14:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T14:39:43+00:00</t>
+    <t>2025-07-30T15:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T15:46:36+00:00</t>
+    <t>2025-07-31T09:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:39:48+00:00</t>
+    <t>2025-07-31T12:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:13:32+00:00</t>
+    <t>2025-07-31T12:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
